--- a/main/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
